--- a/biology/Médecine/Cariprazine/Cariprazine.xlsx
+++ b/biology/Médecine/Cariprazine/Cariprazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La cariprazine (RGH-188) est un médicament antipsychotique atypique
-découvert par Gedeon Richter. Il fonctionne comme un agoniste partiel des récepteurs de dopamine 2 et 3, avec une forte préférence pour les récepteurs 3[2]. Des essais de phase III sont en cours pour le traitement de la schizophrénie et la manie dans les troubles bipolaires de type I, et des essais de phase II pour le traitement de la dépression bipolaire[3]. L'action sur le système dopaminergique en fait également un candidat comme traitement d'appoint de la dépression majeure[4].
+découvert par Gedeon Richter. Il fonctionne comme un agoniste partiel des récepteurs de dopamine 2 et 3, avec une forte préférence pour les récepteurs 3. Des essais de phase III sont en cours pour le traitement de la schizophrénie et la manie dans les troubles bipolaires de type I, et des essais de phase II pour le traitement de la dépression bipolaire. L'action sur le système dopaminergique en fait également un candidat comme traitement d'appoint de la dépression majeure.
 Forest Laboratories a acquis en 2004 une licence pour le développement et les droits exclusifs de commercialisation aux États-Unis.
 </t>
         </is>
